--- a/biology/Médecine/Karl_Ludwig_Kahlbaum/Karl_Ludwig_Kahlbaum.xlsx
+++ b/biology/Médecine/Karl_Ludwig_Kahlbaum/Karl_Ludwig_Kahlbaum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Karl Ludwig Kahlbaum, né le 28 décembre 1828 à Driesen et mort le 15 avril 1899, est un psychiatre et professeur de médecine prussien. En 1855, il obtient son doctorat de médecine à Berlin.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Kahlbaum étudie la médecine aux universités de Königsberg, de Würzbourg et Leipzig. Il obtient son diplôme de doctorat en 1855 à Berlin et travaille dans l'établissement psychiatrique de Wehlau. De 1863 à 1866, il est également maître de conférences à l'Université de Königsberg où il enseigne la psychiatrie[1]. En 1866, Kahlbaum s'installe à Görlitz dans l'établissement de soins pour épileptiques fondé en 1855 par Hermann Andreas Reimer (de) (1825-1906).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kahlbaum étudie la médecine aux universités de Königsberg, de Würzbourg et Leipzig. Il obtient son diplôme de doctorat en 1855 à Berlin et travaille dans l'établissement psychiatrique de Wehlau. De 1863 à 1866, il est également maître de conférences à l'Université de Königsberg où il enseigne la psychiatrie. En 1866, Kahlbaum s'installe à Görlitz dans l'établissement de soins pour épileptiques fondé en 1855 par Hermann Andreas Reimer (de) (1825-1906).
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>De avium tractus alimentarii anatomia et histologia nonnulla. Doctoral dissertation, Berlin, 1854.
 Die Gruppierung der psychischen Krankheiten und die Einteilung der Seelenstörungen, 1863.
